--- a/Yellamanchili_gradingRubric.xlsx
+++ b/Yellamanchili_gradingRubric.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Downloads\Labexam1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -507,6 +507,106 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -540,106 +640,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -654,13 +654,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:E38" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:E38"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="S. No." dataDxfId="4"/>
-    <tableColumn id="2" name="                                                    Question" dataDxfId="3"/>
-    <tableColumn id="3" name="Points" dataDxfId="2"/>
-    <tableColumn id="4" name="Comments" dataDxfId="1"/>
+    <tableColumn id="1" name="S. No." dataDxfId="3"/>
+    <tableColumn id="2" name="                                                    Question" dataDxfId="2"/>
+    <tableColumn id="3" name="Points" dataDxfId="1"/>
+    <tableColumn id="4" name="Comments" dataDxfId="0"/>
     <tableColumn id="5" name="Marks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +982,9 @@
       <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
@@ -996,6 +999,9 @@
       <c r="D4" s="23" t="s">
         <v>9</v>
       </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
@@ -1009,6 +1015,9 @@
       </c>
       <c r="D5" s="23" t="s">
         <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1028,6 +1037,9 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="23"/>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
@@ -1038,6 +1050,9 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="23"/>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
@@ -1048,6 +1063,9 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="23"/>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -1058,6 +1076,9 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="23"/>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -1070,6 +1091,9 @@
       <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1082,6 +1106,9 @@
       <c r="D12" s="23" t="s">
         <v>18</v>
       </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
@@ -1094,6 +1121,9 @@
       <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
@@ -1104,6 +1134,9 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="23"/>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
@@ -1116,6 +1149,9 @@
       <c r="D15" s="23" t="s">
         <v>25</v>
       </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
@@ -1128,8 +1164,11 @@
       <c r="D16" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -1140,8 +1179,11 @@
       <c r="D17" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
@@ -1149,7 +1191,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>30</v>
@@ -1159,7 +1201,7 @@
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>31</v>
@@ -1169,7 +1211,7 @@
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1179,7 +1221,7 @@
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -1189,7 +1231,7 @@
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>32</v>
@@ -1201,7 +1243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>35</v>
@@ -1213,7 +1255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
@@ -1223,7 +1265,7 @@
       </c>
       <c r="D25" s="24"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1235,7 +1277,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="4" t="s">
         <v>40</v>
@@ -1247,7 +1289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -1257,7 +1299,7 @@
       </c>
       <c r="D28" s="24"/>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="2" t="s">
         <v>47</v>
@@ -1269,7 +1311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="2" t="s">
         <v>44</v>
@@ -1281,7 +1323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="4" t="s">
         <v>46</v>
@@ -1293,7 +1335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="4" t="s">
         <v>54</v>
